--- a/Crawling/music/crawled_data/live_melon/live_melon_20220504_110400.xlsx
+++ b/Crawling/music/crawled_data/live_melon/live_melon_20220504_110400.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-05-04</t>
